--- a/test/graduation_test/test_graduation_output.xlsx
+++ b/test/graduation_test/test_graduation_output.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr-ocr-extraction\test\graduation_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F83C32-4869-4E8B-8824-5B0D1D467331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A303E15-8EA2-409F-9E5C-876E91A23982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20420" yWindow="1220" windowWidth="17080" windowHeight="16330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="153">
   <si>
     <t>파일명</t>
   </si>
@@ -119,9 +119,6 @@
     <t>24</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
@@ -338,9 +335,6 @@
     <t>XD6B-29E7-1440-3FCE</t>
   </si>
   <si>
-    <t>5811-12-20</t>
-  </si>
-  <si>
     <t>2023-11-30</t>
   </si>
   <si>
@@ -445,6 +439,85 @@
   </si>
   <si>
     <t>맞음?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/12/2019 이런식으로 되어있어서 앞의 숫자랑 겹쳐서 찾음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E를 F로 인식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 거 맞음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5-4-4패턴으로 찾아버림. 이유 : OCR 그지같이됨. 애초에 파일 상태 구림
+유효기간 찾음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효기간 찾음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>internetno)+알파벳+숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자 앞에 '·'이 껴있어서 4-4-4-4패턴 못찾음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업예정년월을 찾아옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01CC를 찾아야되는데 0CC만 ocr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBB -&gt; DERB라고 오역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 유효기간 찾음
+(2) 4-5-4-5 패턴이긴한데, (internetno)없어서 못찾음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-'가 2개 붙어있음 --286A </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8E58 &lt; B를 E로 해버림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 게 맞음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B를 R이라고 오역
+졸업 예정 잡음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7160 -&gt; 716D, 근데 이거 사람도 힘듦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F0C8 -&gt; F0CB임, 근데 이거 사람도 힘듦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1152-1901-6502-0535</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +557,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -507,15 +580,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -821,20 +913,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="23.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="2" max="2" width="23.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.796875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,88 +935,97 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F1" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="D2">
         <f>IF(B2=C2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E2" s="5">
+        <v>1428818</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D59" si="0">IF(B3=C3,1,0)</f>
+        <f t="shared" ref="D3:D58" si="0">IF(B3=C3,1,0)</f>
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -932,28 +1034,31 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -962,64 +1067,70 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1028,64 +1139,70 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1094,10 +1211,13 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1106,10 +1226,13 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1118,10 +1241,13 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1130,79 +1256,88 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1211,10 +1346,13 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1223,22 +1361,34 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>27</v>
       </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
       <c r="D26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1253,61 +1403,64 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1322,10 +1475,10 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1340,61 +1493,61 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>80</v>
       </c>
-      <c r="C33" t="s">
-        <v>80</v>
-      </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>81</v>
       </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" t="s">
-        <v>82</v>
-      </c>
       <c r="D35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1403,22 +1556,31 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>38</v>
       </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
       <c r="D37">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1433,10 +1595,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1451,10 +1613,13 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1469,10 +1634,10 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1487,85 +1652,94 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" t="s">
-        <v>87</v>
-      </c>
       <c r="D42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>44</v>
       </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
       <c r="D43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" t="s">
-        <v>88</v>
-      </c>
       <c r="D44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>46</v>
       </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>89</v>
       </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1580,10 +1754,13 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1598,10 +1775,10 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1616,40 +1793,46 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" t="s">
-        <v>93</v>
-      </c>
       <c r="D50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>52</v>
       </c>
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
       <c r="D51">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1664,10 +1847,10 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1682,46 +1865,52 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1736,62 +1925,61 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>58</v>
       </c>
-      <c r="B57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" t="s">
-        <v>98</v>
-      </c>
       <c r="D57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>59</v>
       </c>
+      <c r="B58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" t="s">
+        <v>98</v>
+      </c>
       <c r="D58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D59" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="0"/>
+  <autoFilter ref="A1:F58" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="(1) 유효기간 찾음_x000a_(2) 4-5-4-5 패턴이긴한데, (internetno)없어서 못찾음"/>
+        <filter val="01CC를 찾아야되는데 0CC만 ocr"/>
+        <filter val="11/12/2019 이런식으로 되어있어서 앞의 숫자랑 겹쳐서 찾음"/>
+        <filter val="4-5-4-4패턴으로 찾아버림. 이유 : OCR 그지같이됨. 애초에 파일 상태 구림_x000a_유효기간 찾음"/>
+        <filter val="7160 -&gt; 716D, 근데 이거 사람도 힘듦"/>
+        <filter val="8E58 &lt; B를 E로 해버림"/>
+        <filter val="B를 R이라고 오역_x000a_졸업 예정 잡음"/>
+        <filter val="DEBB -&gt; DERB라고 오역"/>
+        <filter val="E를 F로 인식"/>
+        <filter val="F0C8 -&gt; F0CB임, 근데 이거 사람도 힘듦"/>
+        <filter val="internetno)+알파벳+숫자"/>
+        <filter val="-'가 2개 붙어있음 --286A"/>
+        <filter val="숫자 앞에 '·'이 껴있어서 4-4-4-4패턴 못찾음"/>
+        <filter val="유효기간 찾음"/>
+        <filter val="졸업예정년월을 찾아옴"/>
       </filters>
     </filterColumn>
   </autoFilter>
